--- a/assets/DAX_Measures.xlsx
+++ b/assets/DAX_Measures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\DEPI\Microsoft Power BI Specialist\Final Project\Project Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\DEPI\Microsoft Power BI Specialist\Final Project\Project Files\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A1D7BD-20C2-439C-A4FF-615F14BE0769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50244EE2-59D2-475C-B966-4E6786C2E864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,19 +1260,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="72.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="14" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" style="5" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="0" style="2" hidden="1" customWidth="1"/>
